--- a/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
@@ -1,6 +1,229 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7BE27-CD14-4E94-AA02-969A8B6A3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="用户导入模板" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <si>
+    <t>用户导入模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+字段说明：红底白字为必填字段!!!!
+导入用户默认密码:123456
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门分配</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -42,12 +265,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -77,12 +300,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -251,9 +474,104 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7BE27-CD14-4E94-AA02-969A8B6A3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D149CA0-4FC7-4175-984B-37BDEF81645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户导入模板" sheetId="1" r:id="rId1"/>
@@ -170,12 +170,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -184,26 +199,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +503,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,64 +519,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sysUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D149CA0-4FC7-4175-984B-37BDEF81645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE6FBD-BBC0-44B6-AD77-D490AB64E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户导入模板" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>用户导入模板</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,6 +195,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,15 +215,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,75 +511,69 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
